--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42030.88892901749</v>
+        <v>-44469.36202876438</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>23.86075901978505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>103.0933547517656</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>199.4040044915507</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>71.6703719699171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>95.868234983197</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>260.0943654000835</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>11.37624141617697</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1066,13 +1066,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>43.29477100633263</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>18.25091163461862</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>96.42217904608398</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>66.37527504191476</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>16.99141685203525</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>61.42978662487899</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.36264995190442</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,13 +1534,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819386</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986293</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>126.9263824507407</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>133.8107367464736</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>35.88641949135589</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>132.6315337216688</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>167.3637267182072</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.632620083626864</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>87.21471514852939</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3943,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>137.9792024346631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>35.19779014108429</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1263.548871187317</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.548871187317</v>
+        <v>1132.251444816073</v>
       </c>
       <c r="D2" t="n">
-        <v>905.2831725805665</v>
+        <v>773.9857462093221</v>
       </c>
       <c r="E2" t="n">
-        <v>519.4949199823222</v>
+        <v>388.1974936110778</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>388.1974936110778</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3221.47111983971</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2967.940643113546</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2766.522456758445</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2413.75380148833</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>2040.28804322725</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y2" t="n">
-        <v>1650.148711251439</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1856.952108214819</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C4" t="n">
-        <v>1856.952108214819</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D4" t="n">
-        <v>1856.952108214819</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E4" t="n">
-        <v>1709.039014632426</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F4" t="n">
-        <v>1562.149067134515</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134515</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3138.93876337357</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3138.93876337357</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>2849.835896499213</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>2595.151408293326</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W4" t="n">
-        <v>2305.734238256366</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>2077.744687358349</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y4" t="n">
-        <v>1856.952108214819</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1148.925018530804</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>790.6593199240531</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>790.6593199240531</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,37 +4580,37 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734407</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.308520734407</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4620,34 +4620,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>923.9108438165264</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1883.562456162904</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1661.79584073243</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1372.692973858074</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V7" t="n">
-        <v>1372.692973858074</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="W7" t="n">
-        <v>1372.692973858074</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="X7" t="n">
-        <v>1144.703422960057</v>
+        <v>963.8317579370578</v>
       </c>
       <c r="Y7" t="n">
-        <v>923.9108438165264</v>
+        <v>945.3964936596652</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.50962791956</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="C8" t="n">
-        <v>1329.547110979148</v>
+        <v>1628.17820394412</v>
       </c>
       <c r="D8" t="n">
-        <v>1329.547110979148</v>
+        <v>1269.91250533737</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>884.1242527391255</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>473.1383479495179</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>945.3964936596652</v>
+        <v>718.3439163053883</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>549.4077333774815</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>399.2910939651457</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>251.3780003827526</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>251.3780003827526</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>83.67516375747155</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>83.67516375747155</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4993,19 +4993,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1865.244258568413</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W10" t="n">
-        <v>1575.827088531452</v>
+        <v>1348.774511177176</v>
       </c>
       <c r="X10" t="n">
-        <v>1347.837537633435</v>
+        <v>1120.784960279158</v>
       </c>
       <c r="Y10" t="n">
-        <v>1127.044958489905</v>
+        <v>899.9923811356281</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5075,16 +5075,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1577.52840832642</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
         <v>1577.52840832642</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.7774158311364</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032295</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,25 +5273,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5358,22 +5358,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687896</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400699</v>
+        <v>849.3843576263215</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400699</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277341</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
         <v>235.5284942057738</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2311.800723230287</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2092.199258253228</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1803.124031597426</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1548.439543391539</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1259.022373354579</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1031.032822456561</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.032822456561</v>
       </c>
     </row>
     <row r="17">
@@ -5507,28 +5507,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5592,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2410.714175003133</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2191.112710026075</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="20">
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6391,43 +6391,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.3616186032</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947398</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6546,22 +6546,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>114.9565346495158</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>741.8431516380886</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>572.9069687101817</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>1144.284195611858</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.4916164683283</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310023</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>211.4566897748909</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>387.0609666336684</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,13 +22604,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>128.3482539785842</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>101.1362515151326</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>93.9007903482449</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>139.4693302300329</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>32.89260457060007</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>19.50758019582848</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>47.21554925517097</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>145.1398665102887</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>84.77391660561949</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>35.11263957635595</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>84.77391660562077</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>144.8013425629423</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>61.40075786968296</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>114.1584408891649</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>43.72409101823369</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>105.0969227051396</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794693</v>
+        <v>298593.7657794695</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457133</v>
       </c>
       <c r="D2" t="n">
         <v>328416.7079457133</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="F2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="G2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="H2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="I2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="J2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="K2" t="n">
         <v>322858.6398760024</v>
@@ -26344,16 +26344,16 @@
         <v>322858.6398760024</v>
       </c>
       <c r="M2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="N2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760023</v>
       </c>
       <c r="O2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47799.18331047967</v>
+        <v>47799.18331047968</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314485</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314482</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26439,22 +26439,22 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179356</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11167.03225179354</v>
+      </c>
+      <c r="O4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11167.03225179358</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11167.03225179358</v>
       </c>
       <c r="P4" t="n">
         <v>11167.03225179351</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1185884.103819996</v>
+        <v>-1186070.497208535</v>
       </c>
       <c r="C6" t="n">
-        <v>130128.7003611753</v>
+        <v>130128.7003611754</v>
       </c>
       <c r="D6" t="n">
-        <v>130128.7003611752</v>
+        <v>130128.700361175</v>
       </c>
       <c r="E6" t="n">
-        <v>-114843.3840070532</v>
+        <v>-114878.121932489</v>
       </c>
       <c r="F6" t="n">
-        <v>210569.0778003018</v>
+        <v>210534.339874866</v>
       </c>
       <c r="G6" t="n">
-        <v>210569.0778003017</v>
+        <v>210534.339874866</v>
       </c>
       <c r="H6" t="n">
-        <v>210569.0778003018</v>
+        <v>210534.3398748661</v>
       </c>
       <c r="I6" t="n">
-        <v>210569.0778003017</v>
+        <v>210534.339874866</v>
       </c>
       <c r="J6" t="n">
-        <v>-6962.124596975656</v>
+        <v>-6996.862522411393</v>
       </c>
       <c r="K6" t="n">
-        <v>210569.0778003018</v>
+        <v>210534.3398748661</v>
       </c>
       <c r="L6" t="n">
-        <v>210569.0778003017</v>
+        <v>210534.3398748661</v>
       </c>
       <c r="M6" t="n">
-        <v>125514.0498647901</v>
+        <v>125479.3119393542</v>
       </c>
       <c r="N6" t="n">
-        <v>210569.0778003017</v>
+        <v>210534.3398748659</v>
       </c>
       <c r="O6" t="n">
-        <v>210569.0778003016</v>
+        <v>210534.3398748661</v>
       </c>
       <c r="P6" t="n">
-        <v>210569.0778003018</v>
+        <v>210534.3398748661</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973553</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022923</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>100.8246153878545</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>268.5948491633364</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>24.68204843992099</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.6394762633971</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>395.4998043255345</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>146.4742543251093</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>200.3337417174762</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>285.5081910261778</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>344.5464506115387</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>79.36100355780283</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>190.707856698949</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29463,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,19 +31838,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32078,10 +32078,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>456.3459017226598</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,16 +32312,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172138</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32707,34 +32707,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,10 +33038,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33971,31 +33971,31 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,19 +35486,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35726,10 +35726,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,7 +35978,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,10 +36686,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010442</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
